--- a/restaurantes.xlsx
+++ b/restaurantes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roosevelt/Documents/UPC/201802/IA/TrabajoFinal/apipython/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roosevelt/Desktop/FINAL FINAL IA/FINAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CDAF00-7661-B245-BC4D-3AAFEE7C03E3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141DE9C5-8F8E-634D-90C4-90429B107AA7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="20680" windowHeight="16500" xr2:uid="{137F3402-D4B9-0E44-9BC4-A75AAAEA574E}"/>
   </bookViews>
@@ -105,10 +105,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,7 +427,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="169" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F2" sqref="F2:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -467,7 +468,7 @@
       </c>
       <c r="C2" t="str">
         <f ca="1">IF(MOD(ROUND(RAND(),0),2)=0,"economico","caro")</f>
-        <v>caro</v>
+        <v>economico</v>
       </c>
       <c r="D2" t="str">
         <f ca="1">IF(MOD(ROUND(RAND(),0),2)=0,"popular","no popular")</f>
@@ -475,11 +476,11 @@
       </c>
       <c r="E2" t="str">
         <f ca="1">IF(MOD(ROUND(RAND(),0),2)=0,"grande","normal")</f>
-        <v>normal</v>
-      </c>
-      <c r="F2">
+        <v>grande</v>
+      </c>
+      <c r="F2" s="3">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>7</v>
@@ -503,11 +504,11 @@
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E8" ca="1" si="3">IF(MOD(ROUND(RAND(),0),2)=0,"grande","normal")</f>
-        <v>grande</v>
-      </c>
-      <c r="F3">
+        <v>normal</v>
+      </c>
+      <c r="F3" s="3">
         <f t="shared" ref="F3:F8" ca="1" si="4">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
@@ -531,11 +532,11 @@
       </c>
       <c r="E4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>normal</v>
-      </c>
-      <c r="F4">
+        <v>grande</v>
+      </c>
+      <c r="F4" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
         <v>7</v>
@@ -547,23 +548,23 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>internacional</v>
+        <v>nacional</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>economico</v>
+        <v>caro</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>popular</v>
+        <v>no popular</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>grande</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5" t="s">
         <v>7</v>
@@ -579,19 +580,19 @@
       </c>
       <c r="C6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>economico</v>
+        <v>caro</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>popular</v>
+        <v>no popular</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>grande</v>
-      </c>
-      <c r="F6">
+        <v>normal</v>
+      </c>
+      <c r="F6" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G6" t="s">
         <v>7</v>
@@ -603,11 +604,11 @@
       </c>
       <c r="B7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>nacional</v>
+        <v>internacional</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>economico</v>
+        <v>caro</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -617,9 +618,9 @@
         <f t="shared" ca="1" si="3"/>
         <v>grande</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G7" t="s">
         <v>7</v>
@@ -635,19 +636,19 @@
       </c>
       <c r="C8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>caro</v>
+        <v>economico</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>no popular</v>
+        <v>popular</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>normal</v>
-      </c>
-      <c r="F8">
+        <v>grande</v>
+      </c>
+      <c r="F8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G8" t="s">
         <v>7</v>

--- a/restaurantes.xlsx
+++ b/restaurantes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roosevelt/Desktop/FINAL FINAL IA/FINAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141DE9C5-8F8E-634D-90C4-90429B107AA7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29854A2-AEBE-4347-B74F-92544E150EF9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20680" windowHeight="16500" xr2:uid="{137F3402-D4B9-0E44-9BC4-A75AAAEA574E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" xr2:uid="{137F3402-D4B9-0E44-9BC4-A75AAAEA574E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
   <si>
     <t>TelePizza</t>
   </si>
@@ -70,19 +70,127 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>Titos</t>
+  </si>
+  <si>
+    <t>Bembos</t>
+  </si>
+  <si>
+    <t>Chilis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aji amarillo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">al fresco gastronomia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">al fresco peruanisimo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">alto peru </t>
+  </si>
+  <si>
+    <t xml:space="preserve">amanecer peruano </t>
+  </si>
+  <si>
+    <t xml:space="preserve">antuperu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">aomori </t>
+  </si>
+  <si>
+    <t>manos morenas</t>
+  </si>
+  <si>
+    <t>manos peruanas</t>
+  </si>
+  <si>
+    <t>mare nostrum</t>
+  </si>
+  <si>
+    <t>marisqueria labrin</t>
+  </si>
+  <si>
+    <t>miski wasi</t>
+  </si>
+  <si>
+    <t>miski nautica</t>
+  </si>
+  <si>
+    <t>mochica</t>
+  </si>
+  <si>
+    <t>mochica restaurant</t>
+  </si>
+  <si>
+    <t>museo peruano</t>
+  </si>
+  <si>
+    <t>nazca café- restaurant</t>
+  </si>
+  <si>
+    <t>olan 66</t>
+  </si>
+  <si>
+    <t>osaka</t>
+  </si>
+  <si>
+    <t>ozaki</t>
+  </si>
+  <si>
+    <t>pachakama</t>
+  </si>
+  <si>
+    <t>pachamama</t>
+  </si>
+  <si>
+    <t>paijan</t>
+  </si>
+  <si>
+    <t>pardo's chicken apoquindo</t>
+  </si>
+  <si>
+    <t>peruanísimo</t>
+  </si>
+  <si>
+    <t>peru gustoso</t>
+  </si>
+  <si>
+    <t>peru house</t>
+  </si>
+  <si>
+    <t>peru internacional</t>
+  </si>
+  <si>
+    <t>peru magico</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val=".AppleSystemUIFont"/>
     </font>
   </fonts>
   <fills count="2">
@@ -105,11 +213,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,18 +534,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78006353-D1F5-5C4F-BB56-0C02D2308C85}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="169" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F8"/>
+      <selection activeCell="B18" sqref="B18:G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -458,13 +568,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="str">
         <f ca="1">IF(MOD(ROUND(RAND(),0),2)=0,"nacional","internacional")</f>
-        <v>internacional</v>
+        <v>nacional</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">IF(MOD(ROUND(RAND(),0),2)=0,"economico","caro")</f>
@@ -472,49 +582,49 @@
       </c>
       <c r="D2" t="str">
         <f ca="1">IF(MOD(ROUND(RAND(),0),2)=0,"popular","no popular")</f>
-        <v>popular</v>
+        <v>no popular</v>
       </c>
       <c r="E2" t="str">
         <f ca="1">IF(MOD(ROUND(RAND(),0),2)=0,"grande","normal")</f>
-        <v>grande</v>
+        <v>normal</v>
       </c>
       <c r="F2" s="3">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B8" ca="1" si="0">IF(MOD(ROUND(RAND(),0),2)=0,"nacional","internacional")</f>
-        <v>internacional</v>
+        <f t="shared" ref="B3:B41" ca="1" si="0">IF(MOD(ROUND(RAND(),0),2)=0,"nacional","internacional")</f>
+        <v>nacional</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C8" ca="1" si="1">IF(MOD(ROUND(RAND(),0),2)=0,"economico","caro")</f>
-        <v>economico</v>
+        <f t="shared" ref="C3:C41" ca="1" si="1">IF(MOD(ROUND(RAND(),0),2)=0,"economico","caro")</f>
+        <v>caro</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D8" ca="1" si="2">IF(MOD(ROUND(RAND(),0),2)=0,"popular","no popular")</f>
+        <f t="shared" ref="D3:D41" ca="1" si="2">IF(MOD(ROUND(RAND(),0),2)=0,"popular","no popular")</f>
         <v>no popular</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E8" ca="1" si="3">IF(MOD(ROUND(RAND(),0),2)=0,"grande","normal")</f>
-        <v>normal</v>
+        <f t="shared" ref="E3:E41" ca="1" si="3">IF(MOD(ROUND(RAND(),0),2)=0,"grande","normal")</f>
+        <v>grande</v>
       </c>
       <c r="F3" s="3">
-        <f t="shared" ref="F3:F8" ca="1" si="4">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <f t="shared" ref="F3:F41" ca="1" si="4">RANDBETWEEN(1,5)</f>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -524,7 +634,7 @@
       </c>
       <c r="C4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>economico</v>
+        <v>caro</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -542,7 +652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -556,21 +666,21 @@
       </c>
       <c r="D5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>no popular</v>
+        <v>popular</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>grande</v>
+        <v>normal</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -580,7 +690,7 @@
       </c>
       <c r="C6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>caro</v>
+        <v>economico</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -592,13 +702,13 @@
       </c>
       <c r="F6" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -616,17 +726,17 @@
       </c>
       <c r="E7" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>grande</v>
+        <v>normal</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -636,23 +746,991 @@
       </c>
       <c r="C8" t="str">
         <f t="shared" ca="1" si="1"/>
+        <v>caro</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>no popular</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>normal</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>nacional</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>caro</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>no popular</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>grande</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>internacional</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>economico</v>
       </c>
-      <c r="D8" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>popular</v>
-      </c>
-      <c r="E8" t="str">
+      <c r="D10" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>popular</v>
+      </c>
+      <c r="E10" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>grande</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F10" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>internacional</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>caro</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>no popular</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>normal</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>nacional</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>caro</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>no popular</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>grande</v>
+      </c>
+      <c r="F12" s="3">
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="G8" t="s">
-        <v>7</v>
-      </c>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>internacional</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>caro</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>popular</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>normal</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>internacional</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>caro</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>no popular</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>grande</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>internacional</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>economico</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>no popular</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>grande</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>nacional</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>economico</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>popular</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>grande</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>nacional</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>caro</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>popular</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>grande</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>nacional</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>economico</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>popular</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>normal</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>nacional</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>caro</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>popular</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>grande</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>nacional</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>economico</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>no popular</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>normal</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>nacional</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>economico</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>no popular</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>grande</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>internacional</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>economico</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>popular</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>grande</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>nacional</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>caro</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>no popular</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>normal</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>internacional</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>economico</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>no popular</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>normal</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>nacional</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>economico</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>popular</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>normal</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>nacional</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>economico</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>popular</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>normal</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>internacional</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>economico</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>popular</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>grande</v>
+      </c>
+      <c r="F27" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>internacional</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>caro</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>popular</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>normal</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>nacional</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>caro</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>popular</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>normal</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>nacional</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>caro</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>popular</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>grande</v>
+      </c>
+      <c r="F30" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>internacional</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>caro</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>no popular</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>normal</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="G31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>internacional</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>caro</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>popular</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>grande</v>
+      </c>
+      <c r="F32" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>nacional</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>caro</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>popular</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>normal</v>
+      </c>
+      <c r="F33" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>nacional</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>caro</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>popular</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>normal</v>
+      </c>
+      <c r="F34" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="G34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>nacional</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>caro</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>no popular</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>normal</v>
+      </c>
+      <c r="F35" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>internacional</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>economico</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>no popular</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>grande</v>
+      </c>
+      <c r="F36" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>internacional</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>economico</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>popular</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>normal</v>
+      </c>
+      <c r="F37" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="G37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>internacional</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>caro</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>popular</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>normal</v>
+      </c>
+      <c r="F38" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>nacional</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>caro</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>no popular</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>normal</v>
+      </c>
+      <c r="F39" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="G39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>nacional</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>caro</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>popular</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>grande</v>
+      </c>
+      <c r="F40" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>nacional</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>economico</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>no popular</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>normal</v>
+      </c>
+      <c r="F41" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="4"/>
+      <c r="C42" s="5"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="4"/>
+      <c r="C43" s="5"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="4"/>
+      <c r="C44" s="5"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="4"/>
+      <c r="C45" s="5"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="4"/>
+      <c r="C46" s="5"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="4"/>
+      <c r="C47" s="5"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="4"/>
+      <c r="C48" s="5"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="4"/>
+      <c r="C49" s="5"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="4"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="4"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="4"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
